--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.98117766666667</v>
+        <v>2.843949</v>
       </c>
       <c r="N2">
-        <v>170.943533</v>
+        <v>8.531846999999999</v>
       </c>
       <c r="O2">
-        <v>0.952030123851636</v>
+        <v>0.4976240243095911</v>
       </c>
       <c r="P2">
-        <v>0.9520301238516359</v>
+        <v>0.4976240243095912</v>
       </c>
       <c r="Q2">
-        <v>1540.708687704573</v>
+        <v>17.746548906492</v>
       </c>
       <c r="R2">
-        <v>13866.37818934116</v>
+        <v>159.718940158428</v>
       </c>
       <c r="S2">
-        <v>0.06755784949041201</v>
+        <v>0.008619995241555741</v>
       </c>
       <c r="T2">
-        <v>0.06755784949041201</v>
+        <v>0.008619995241555744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.550157</v>
       </c>
       <c r="O3">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852895</v>
       </c>
       <c r="P3">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852897</v>
       </c>
       <c r="Q3">
-        <v>68.04932763050766</v>
+        <v>15.704598365652</v>
       </c>
       <c r="R3">
-        <v>612.443948674569</v>
+        <v>141.341385290868</v>
       </c>
       <c r="S3">
-        <v>0.002983864679074935</v>
+        <v>0.007628162742838541</v>
       </c>
       <c r="T3">
-        <v>0.002983864679074936</v>
+        <v>0.007628162742838544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3543876666666667</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N4">
         <v>1.063163</v>
       </c>
       <c r="O4">
-        <v>0.005921038279725253</v>
+        <v>0.06200948640511928</v>
       </c>
       <c r="P4">
-        <v>0.005921038279725253</v>
+        <v>0.0620094864051193</v>
       </c>
       <c r="Q4">
-        <v>9.582254688430112</v>
+        <v>2.211417313868</v>
       </c>
       <c r="R4">
-        <v>86.24029219587101</v>
+        <v>19.90275582481199</v>
       </c>
       <c r="S4">
-        <v>0.0004201680208503407</v>
+        <v>0.001074147250999476</v>
       </c>
       <c r="T4">
-        <v>0.0004201680208503408</v>
+        <v>0.001074147250999477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.98117766666667</v>
+        <v>2.843949</v>
       </c>
       <c r="N5">
-        <v>170.943533</v>
+        <v>8.531846999999999</v>
       </c>
       <c r="O5">
-        <v>0.952030123851636</v>
+        <v>0.4976240243095911</v>
       </c>
       <c r="P5">
-        <v>0.9520301238516359</v>
+        <v>0.4976240243095912</v>
       </c>
       <c r="Q5">
-        <v>19690.7906336612</v>
+        <v>982.773726780471</v>
       </c>
       <c r="R5">
-        <v>177217.1157029508</v>
+        <v>8844.963541024237</v>
       </c>
       <c r="S5">
-        <v>0.8634127142866952</v>
+        <v>0.4773606909721268</v>
       </c>
       <c r="T5">
-        <v>0.8634127142866952</v>
+        <v>0.477360690972127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.550157</v>
       </c>
       <c r="O6">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852895</v>
       </c>
       <c r="P6">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852897</v>
       </c>
       <c r="Q6">
         <v>869.693975134301</v>
@@ -818,10 +818,10 @@
         <v>7827.245776208709</v>
       </c>
       <c r="S6">
-        <v>0.03813482402203944</v>
+        <v>0.422434692331923</v>
       </c>
       <c r="T6">
-        <v>0.03813482402203944</v>
+        <v>0.4224346923319232</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3543876666666667</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N7">
         <v>1.063163</v>
       </c>
       <c r="O7">
-        <v>0.005921038279725253</v>
+        <v>0.06200948640511928</v>
       </c>
       <c r="P7">
-        <v>0.005921038279725253</v>
+        <v>0.0620094864051193</v>
       </c>
       <c r="Q7">
         <v>122.4645336097923</v>
@@ -880,10 +880,10 @@
         <v>1102.180802488131</v>
       </c>
       <c r="S7">
-        <v>0.005369892826300635</v>
+        <v>0.05948444976755903</v>
       </c>
       <c r="T7">
-        <v>0.005369892826300635</v>
+        <v>0.05948444976755906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.98117766666667</v>
+        <v>2.843949</v>
       </c>
       <c r="N8">
-        <v>170.943533</v>
+        <v>8.531846999999999</v>
       </c>
       <c r="O8">
-        <v>0.952030123851636</v>
+        <v>0.4976240243095911</v>
       </c>
       <c r="P8">
-        <v>0.9520301238516359</v>
+        <v>0.4976240243095912</v>
       </c>
       <c r="Q8">
-        <v>480.2794554712365</v>
+        <v>23.970902902328</v>
       </c>
       <c r="R8">
-        <v>4322.515099241128</v>
+        <v>215.738126120952</v>
       </c>
       <c r="S8">
-        <v>0.02105956007452876</v>
+        <v>0.01164333809590852</v>
       </c>
       <c r="T8">
-        <v>0.02105956007452876</v>
+        <v>0.01164333809590853</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>7.550157</v>
       </c>
       <c r="O9">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852895</v>
       </c>
       <c r="P9">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852897</v>
       </c>
       <c r="Q9">
         <v>21.21276674843467</v>
@@ -1004,10 +1004,10 @@
         <v>190.914900735912</v>
       </c>
       <c r="S9">
-        <v>0.0009301491675243651</v>
+        <v>0.01030363421052797</v>
       </c>
       <c r="T9">
-        <v>0.0009301491675243653</v>
+        <v>0.01030363421052797</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3543876666666667</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N10">
         <v>1.063163</v>
       </c>
       <c r="O10">
-        <v>0.005921038279725253</v>
+        <v>0.06200948640511928</v>
       </c>
       <c r="P10">
-        <v>0.005921038279725253</v>
+        <v>0.0620094864051193</v>
       </c>
       <c r="Q10">
-        <v>2.987041029023112</v>
+        <v>2.98704102902311</v>
       </c>
       <c r="R10">
-        <v>26.88336926120801</v>
+        <v>26.883369261208</v>
       </c>
       <c r="S10">
-        <v>0.0001309774325742771</v>
+        <v>0.001450889386560775</v>
       </c>
       <c r="T10">
-        <v>0.0001309774325742772</v>
+        <v>0.001450889386560776</v>
       </c>
     </row>
   </sheetData>
